--- a/result/descriptive_statistics_results.xlsx
+++ b/result/descriptive_statistics_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\project\Sepsis_prediction_model\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E37F03-131D-4A30-B528-ED99EF2F01B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41AC956-59E8-47B4-8FF4-3BF961DCDE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="132">
   <si>
     <t>項目</t>
   </si>
@@ -416,6 +416,10 @@
   </si>
   <si>
     <t>ns</t>
+  </si>
+  <si>
+    <t>p_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -795,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -855,22 +859,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -899,7 +904,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="J1" s="2"/>
     </row>
@@ -931,7 +936,6 @@
       <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -961,7 +965,6 @@
       <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -991,7 +994,6 @@
       <c r="I4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1021,7 +1023,6 @@
       <c r="I5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1051,7 +1052,6 @@
       <c r="I6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1081,7 +1081,6 @@
       <c r="I7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1111,7 +1110,6 @@
       <c r="I8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1141,7 +1139,6 @@
       <c r="I9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1171,7 +1168,6 @@
       <c r="I10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -1201,7 +1197,6 @@
       <c r="I11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -1231,7 +1226,6 @@
       <c r="I12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1261,7 +1255,6 @@
       <c r="I13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -1291,7 +1284,6 @@
       <c r="I14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1321,7 +1313,6 @@
       <c r="I15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -1351,9 +1342,8 @@
       <c r="I16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
@@ -1381,9 +1371,8 @@
       <c r="I17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>89</v>
       </c>
@@ -1411,9 +1400,8 @@
       <c r="I18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>94</v>
       </c>
@@ -1441,9 +1429,8 @@
       <c r="I19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>98</v>
       </c>
@@ -1471,9 +1458,8 @@
       <c r="I20" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>103</v>
       </c>
@@ -1501,9 +1487,8 @@
       <c r="I21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>107</v>
       </c>
@@ -1531,9 +1516,8 @@
       <c r="I22" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>112</v>
       </c>
@@ -1561,9 +1545,8 @@
       <c r="I23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
@@ -1591,9 +1574,8 @@
       <c r="I24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>121</v>
       </c>
@@ -1621,7 +1603,6 @@
       <c r="I25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1634,7 +1615,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2158,7 +2139,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
